--- a/FTSE/MCX_post-review.xlsx
+++ b/FTSE/MCX_post-review.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Caden\FTSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6f9c8d5376da9b3/Documents/All Finance Topics/SMU MQF/QF603 QAFM/QF603_QAFM_Project/FTSE/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_61066DBAAC7887DABD3692585CF9FCE3EA9A05F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{594AD35D-6F96-4805-A9CD-30B1F95DF007}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20220620" sheetId="2" r:id="rId1"/>
@@ -3490,7 +3491,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3985,7 +3986,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="26"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -4013,7 +4014,7 @@
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="blp_column_header" xfId="26"/>
+    <cellStyle name="blp_column_header" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="28" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="29" builtinId="53" customBuiltin="1"/>
@@ -4046,9 +4047,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4086,9 +4087,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4123,7 +4124,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4158,7 +4159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4331,20 +4332,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="M226" sqref="M226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -10879,7 +10883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17427,7 +17431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23975,7 +23979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30523,20 +30527,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
